--- a/DataGenerator/XLSXS/CompanionData.xlsx
+++ b/DataGenerator/XLSXS/CompanionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34386391-FB43-4AA4-9052-C4B90FD80467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DFC020-377A-4CD9-9DEE-066DC35242E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>동료 ID</t>
   </si>
@@ -40,27 +40,6 @@
     <t>두 번째 패시브</t>
   </si>
   <si>
-    <t xml:space="preserve">첫 번째 스킬 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">두 번째 스킬 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">세 번째 스킬 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">네 번째 스킬 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">다섯 번째 스킬 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">여섯 번째 스킬 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">일곱 번째 스킬 </t>
-  </si>
-  <si>
     <t>해금조건</t>
   </si>
   <si>
@@ -160,78 +139,52 @@
     <t>Seol</t>
   </si>
   <si>
+    <t>첫 번째 스킬</t>
+  </si>
+  <si>
+    <t>두 번째 스킬</t>
+  </si>
+  <si>
+    <t>세 번째 스킬</t>
+  </si>
+  <si>
+    <t>네 번째 스킬</t>
+  </si>
+  <si>
+    <t>다섯 번째 스킬</t>
+  </si>
+  <si>
+    <t>여섯 번째 스킬</t>
+  </si>
+  <si>
+    <t>일곱 번째 스킬</t>
+  </si>
+  <si>
+    <t>캐릭터 LD 루트</t>
+  </si>
+  <si>
+    <t>charLDRoute</t>
+  </si>
+  <si>
     <t>eUpgradeLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> LD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>charLDRoute</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LDGaon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LDSeol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -242,16 +195,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,13 +221,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -501,13 +449,22 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="35.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,163 +484,163 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>1001</v>
+        <v>20010001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -698,28 +655,28 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>2001</v>
+        <v>20010002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>2001</v>
@@ -734,21 +691,21 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DataGenerator/XLSXS/CompanionData.xlsx
+++ b/DataGenerator/XLSXS/CompanionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DFC020-377A-4CD9-9DEE-066DC35242E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C146527-FB19-4B4D-B87F-41476EE20064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="140" windowWidth="17120" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanionData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>동료 ID</t>
   </si>
@@ -112,21 +112,9 @@
     <t>eUnlockCondition</t>
   </si>
   <si>
-    <t>#사냥꾼(매)</t>
-  </si>
-  <si>
-    <t>가온</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
-    <t>testGaon</t>
-  </si>
-  <si>
-    <t>Gaon</t>
-  </si>
-  <si>
     <t>#의녀</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
   </si>
   <si>
     <t>eUpgradeLevel</t>
-  </si>
-  <si>
-    <t>LDGaon</t>
   </si>
   <si>
     <t>LDSeol</t>
@@ -209,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,17 +202,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,24 +451,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,25 +488,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -517,10 +521,10 @@
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -573,10 +577,10 @@
         <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -620,7 +624,7 @@
         <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>28</v>
@@ -632,18 +636,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>20010001</v>
+        <v>20001001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1001</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20002001</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -655,53 +659,17 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>20010002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>50</v>
+      <c r="R4" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/XLSXS/CompanionData.xlsx
+++ b/DataGenerator/XLSXS/CompanionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C146527-FB19-4B4D-B87F-41476EE20064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE237D2E-AC96-45B6-A7E3-632F3EBFB238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="140" windowWidth="17120" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-430" yWindow="820" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanionData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>동료 ID</t>
   </si>
@@ -70,27 +70,6 @@
     <t>PassiveD2</t>
   </si>
   <si>
-    <t>Skill1ID</t>
-  </si>
-  <si>
-    <t>Skill2ID</t>
-  </si>
-  <si>
-    <t>Skill3ID</t>
-  </si>
-  <si>
-    <t>Skill4ID</t>
-  </si>
-  <si>
-    <t>Skill5ID</t>
-  </si>
-  <si>
-    <t>Skill6ID</t>
-  </si>
-  <si>
-    <t>Skill7ID</t>
-  </si>
-  <si>
     <t>UnlockCondition</t>
   </si>
   <si>
@@ -127,27 +106,6 @@
     <t>Seol</t>
   </si>
   <si>
-    <t>첫 번째 스킬</t>
-  </si>
-  <si>
-    <t>두 번째 스킬</t>
-  </si>
-  <si>
-    <t>세 번째 스킬</t>
-  </si>
-  <si>
-    <t>네 번째 스킬</t>
-  </si>
-  <si>
-    <t>다섯 번째 스킬</t>
-  </si>
-  <si>
-    <t>여섯 번째 스킬</t>
-  </si>
-  <si>
-    <t>일곱 번째 스킬</t>
-  </si>
-  <si>
     <t>캐릭터 LD 루트</t>
   </si>
   <si>
@@ -158,13 +116,29 @@
   </si>
   <si>
     <t>LDSeol</t>
+  </si>
+  <si>
+    <t>스킬 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;long&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20101001, 20101002, 20101003, 20101004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -184,6 +158,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -231,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -453,8 +437,8 @@
   </sheetPr>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -462,13 +446,19 @@
     <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="10" width="19.26953125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
     <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="16.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,42 +477,30 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -544,133 +522,111 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>20001001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>20002001</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/CompanionData.xlsx
+++ b/DataGenerator/XLSXS/CompanionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE237D2E-AC96-45B6-A7E3-632F3EBFB238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045398A0-DE3D-4748-AF64-54A4CFC26AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-430" yWindow="820" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3555" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanionData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>동료 ID</t>
   </si>
@@ -116,29 +116,13 @@
   </si>
   <si>
     <t>LDSeol</t>
-  </si>
-  <si>
-    <t>스킬 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;long&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[20101001, 20101002, 20101003, 20101004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,13 +142,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,9 +189,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,30 +409,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="10" width="19.26953125" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,32 +449,29 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -522,31 +491,28 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -566,13 +532,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -580,17 +546,14 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20001001</v>
       </c>
@@ -606,27 +569,24 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/CompanionData.xlsx
+++ b/DataGenerator/XLSXS/CompanionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045398A0-DE3D-4748-AF64-54A4CFC26AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF81A55C-2833-4CFF-BA0A-B8CEF90CF88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3555" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanionData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>동료 ID</t>
   </si>
@@ -116,13 +116,29 @@
   </si>
   <si>
     <t>LDSeol</t>
+  </si>
+  <si>
+    <t>캐릭터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -142,6 +158,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -189,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -412,25 +438,25 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="15" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="8" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="19.1796875" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="15" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,14 +490,16 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -505,14 +533,16 @@
       <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -546,14 +576,16 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>20001001</v>
       </c>
@@ -581,7 +613,9 @@
       <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="4"/>
